--- a/results/pvalue_SIDER_rare_transporter_AUROC.xlsx
+++ b/results/pvalue_SIDER_rare_transporter_AUROC.xlsx
@@ -498,7 +498,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0.000</t>
+          <t>0.004</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.002</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -572,7 +572,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.004</t>
+          <t>0.010</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.003</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>10.525</t>
+          <t>6.102</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>9.565</t>
+          <t>7.435</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.854</t>
+          <t>4.569</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>8.522</t>
+          <t>6.655</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -663,27 +663,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>16.854</t>
+          <t>16.84</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>16.672</t>
+          <t>16.653</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>16.626</t>
+          <t>16.613</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>18.703</t>
+          <t>18.686</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>14.49</t>
+          <t>13.285</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
